--- a/WB/MakePrint/ХарактеристикиПластик.xlsx
+++ b/WB/MakePrint/ХарактеристикиПластик.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA660F4-D14A-4201-9E59-669E7A633D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5769DD-BBDF-4C6F-BD8D-851A9A2FF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C650022E-0108-4973-BD8C-33B5E89052D2}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Вид застежки</t>
   </si>
   <si>
-    <t xml:space="preserve">Комплектация </t>
-  </si>
-  <si>
     <t>Декоративные элементы</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">Пластиковый матовый чехол для телефона *** с цветным рисунком изготовлен из пластика, он твердый и совсем не гнется. Чехол обеспечивает хорошую защиту телефона от потертостей, сколов, царапин. Изделие выполнено в формфакторе накладка или бампер, что означает что он закрывает только заднюю часть смартфона и немного выступает за экран. Небольшая толщина позволяет удобно держать смартфон в руке и чехол почти не увеличивает его габариты. Благодаря этому подойдёт и мужчинам, и женщинам, и детям, в отличие от чехла книжки, который значительно увеличивает габариты телефона. Наш защитный кейс на *** долгое время не теряет свои свойства и цвет. Все вырезы под технологические отверстия точно соблюдены и обеспечивают удобный доступ к разъемам и функциональным клавишам. Цветное покрытие в виде печати на чехле поможет преобразить внешний вид Вашего телефона, а также подчеркнуть Вашу индивидуальность. Принт выполнен сверху чехла износостойкими чернилами. Рисунок не имеет запаха и стойкий к истиранию, выполнен на специальном оборудовании ультрафиолетовыми чернилами.. Также доступны дизайны с рисунком: цветы, цветочки, узор цветы, роза, розочки, красивые цветы, лилия, пион и другие. </t>
+  </si>
+  <si>
+    <t>Комплектация (префикс)</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,1021 +883,1021 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="K13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="K16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="K17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="K18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="K19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="K20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="K21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="K24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="K25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/WB/MakePrint/ХарактеристикиПластик.xlsx
+++ b/WB/MakePrint/ХарактеристикиПластик.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5769DD-BBDF-4C6F-BD8D-851A9A2FF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A4DD4-383A-4D3D-A8CD-A6682094BEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C650022E-0108-4973-BD8C-33B5E89052D2}"/>
   </bookViews>
@@ -336,9 +336,6 @@
     <t>без застежки; нет застежки</t>
   </si>
   <si>
-    <t>Пластиковый чехол на модель ***</t>
-  </si>
-  <si>
     <t>Пластик; АБС; Пластмасса</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>Комплектация (префикс)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пластиковый чехол на модель </t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -924,7 +924,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -933,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -948,13 +948,13 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
@@ -974,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -989,13 +989,13 @@
         <v>23</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
@@ -1015,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
@@ -1030,13 +1030,13 @@
         <v>26</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>28</v>
@@ -1056,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
@@ -1071,13 +1071,13 @@
         <v>30</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>32</v>
@@ -1097,7 +1097,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
@@ -1112,13 +1112,13 @@
         <v>34</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
@@ -1138,7 +1138,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
@@ -1153,13 +1153,13 @@
         <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>38</v>
@@ -1179,7 +1179,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
@@ -1194,13 +1194,13 @@
         <v>40</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>42</v>
@@ -1220,7 +1220,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>15</v>
@@ -1235,13 +1235,13 @@
         <v>44</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
@@ -1261,7 +1261,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>15</v>
@@ -1276,13 +1276,13 @@
         <v>46</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
@@ -1302,7 +1302,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -1317,13 +1317,13 @@
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -1343,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
@@ -1358,13 +1358,13 @@
         <v>53</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
@@ -1399,13 +1399,13 @@
         <v>55</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>57</v>
@@ -1425,7 +1425,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>58</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>60</v>
@@ -1466,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
@@ -1481,13 +1481,13 @@
         <v>61</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>99</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>63</v>
@@ -1507,7 +1507,7 @@
         <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>15</v>
@@ -1522,13 +1522,13 @@
         <v>65</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>67</v>
@@ -1548,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>15</v>
@@ -1563,13 +1563,13 @@
         <v>68</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>99</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>70</v>
@@ -1589,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>15</v>
@@ -1604,13 +1604,13 @@
         <v>71</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>73</v>
@@ -1630,7 +1630,7 @@
         <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>15</v>
@@ -1645,13 +1645,13 @@
         <v>75</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>99</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>77</v>
@@ -1671,7 +1671,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>15</v>
@@ -1686,13 +1686,13 @@
         <v>79</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>99</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>73</v>
@@ -1712,7 +1712,7 @@
         <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>15</v>
@@ -1727,13 +1727,13 @@
         <v>82</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>84</v>
@@ -1753,7 +1753,7 @@
         <v>85</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
@@ -1768,13 +1768,13 @@
         <v>86</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>88</v>
@@ -1794,7 +1794,7 @@
         <v>89</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>15</v>
@@ -1809,13 +1809,13 @@
         <v>90</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>92</v>
@@ -1835,7 +1835,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
@@ -1850,13 +1850,13 @@
         <v>94</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>96</v>
@@ -1876,7 +1876,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>15</v>
@@ -1891,13 +1891,13 @@
         <v>98</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
